--- a/sample.xlsx
+++ b/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\markcomb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B475312F-8973-4521-A11B-4EC47B6A1866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF68B8A-3832-46E4-9728-09B93E00A685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FAF86BAE-BCCE-445F-8753-50EAC256A13B}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="AI&amp;DS (3)" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'AI&amp;DS (3)'!$A$1:$N$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'AI&amp;DS (3)'!$A$1:$N$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,16 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="55">
-  <si>
-    <t>PRATHYUSHA ENGINEERING COLLEGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> III YEAR V SEMESTER AI&amp;DS BATCH: 2020-24(AY:2021-22) ASSESSMENT-I EXAMINATION AUG/SEP 2022</t>
-  </si>
-  <si>
-    <t>Subject Credit Value:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="51">
   <si>
     <t>Must be filled by Class incharge</t>
   </si>
@@ -183,9 +174,6 @@
     <t>HARISH</t>
   </si>
   <si>
-    <t>Subjects</t>
-  </si>
-  <si>
     <t>AD8501</t>
   </si>
   <si>
@@ -201,31 +189,19 @@
     <t>AD8552</t>
   </si>
   <si>
-    <t>Total</t>
+    <t>AD8525</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -234,13 +210,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -362,7 +331,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -446,47 +415,77 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="10" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="1" fontId="11" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="12" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -494,66 +493,28 @@
     <xf numFmtId="1" fontId="13" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="14" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -912,10 +873,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AU31"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScale="58" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="58" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -935,150 +896,203 @@
     <col min="14" max="14" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="28"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-    </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+      <c r="E1" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="4"/>
+    </row>
+    <row r="2" spans="1:14" ht="114.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-    </row>
-    <row r="3" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2">
-        <v>4</v>
-      </c>
-      <c r="G3" s="2">
-        <v>4</v>
-      </c>
-      <c r="H3" s="2">
-        <v>3</v>
-      </c>
-      <c r="I3" s="2">
-        <v>3</v>
-      </c>
-      <c r="J3" s="2">
-        <v>3</v>
-      </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="4"/>
-    </row>
-    <row r="4" spans="1:14" ht="114.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="F2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="N2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="8" t="s">
+    </row>
+    <row r="3" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10">
+        <v>111420243001</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="D3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="5" t="s">
-        <v>17</v>
+      <c r="E3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="14">
+        <v>56</v>
+      </c>
+      <c r="G3" s="15">
+        <v>60</v>
+      </c>
+      <c r="H3" s="15">
+        <v>60</v>
+      </c>
+      <c r="I3" s="15">
+        <v>60</v>
+      </c>
+      <c r="J3" s="13">
+        <v>60</v>
+      </c>
+      <c r="K3" s="16">
+        <f t="shared" ref="K3:K28" si="0">COUNTIF(E3:J3,"&lt;60")+COUNTIF(E3:J3,"AB")+COUNTIF(E3:J3,"A")</f>
+        <v>2</v>
+      </c>
+      <c r="L3" s="16">
+        <v>55</v>
+      </c>
+      <c r="M3" s="17">
+        <v>6</v>
+      </c>
+      <c r="N3" s="18">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="19">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10">
+        <v>111420243002</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="13">
+        <v>60</v>
+      </c>
+      <c r="F4" s="14">
+        <v>60</v>
+      </c>
+      <c r="G4" s="15">
+        <v>60</v>
+      </c>
+      <c r="H4" s="15">
+        <v>60</v>
+      </c>
+      <c r="I4" s="15">
+        <v>73</v>
+      </c>
+      <c r="J4" s="13">
+        <v>60</v>
+      </c>
+      <c r="K4" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L4" s="16">
+        <v>55</v>
+      </c>
+      <c r="M4" s="17">
+        <v>6</v>
+      </c>
+      <c r="N4" s="18">
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" s="10">
-        <v>111420243001</v>
+        <v>111420243003</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="13" t="s">
         <v>20</v>
       </c>
+      <c r="E5" s="20">
+        <v>31</v>
+      </c>
       <c r="F5" s="14">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G5" s="15">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="H5" s="15">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I5" s="15">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="J5" s="13">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K5" s="16">
-        <f t="shared" ref="K5:K30" si="0">COUNTIF(E5:J5,"&lt;60")+COUNTIF(E5:J5,"AB")+COUNTIF(E5:J5,"A")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="L5" s="16">
@@ -1093,34 +1107,34 @@
     </row>
     <row r="6" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" s="10">
-        <v>111420243002</v>
+        <v>111420243004</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="13">
-        <v>60</v>
+        <v>16</v>
+      </c>
+      <c r="E6" s="21">
+        <v>62</v>
       </c>
       <c r="F6" s="14">
         <v>60</v>
       </c>
       <c r="G6" s="15">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H6" s="15">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I6" s="15">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="J6" s="13">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="K6" s="16">
         <f t="shared" si="0"/>
@@ -1138,10 +1152,10 @@
     </row>
     <row r="7" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" s="10">
-        <v>111420243003</v>
+        <v>111420243005</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>22</v>
@@ -1149,27 +1163,27 @@
       <c r="D7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="20">
-        <v>31</v>
+      <c r="E7" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="F7" s="14">
+        <v>68</v>
+      </c>
+      <c r="G7" s="15">
         <v>62</v>
       </c>
-      <c r="G7" s="15">
-        <v>68</v>
-      </c>
       <c r="H7" s="15">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="I7" s="15">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="J7" s="13">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="K7" s="16">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7" s="16">
         <v>55</v>
@@ -1183,34 +1197,34 @@
     </row>
     <row r="8" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B8" s="10">
-        <v>111420243004</v>
-      </c>
-      <c r="C8" s="11" t="s">
+        <v>111420243006</v>
+      </c>
+      <c r="C8" s="22" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E8" s="21">
+        <v>67</v>
+      </c>
+      <c r="F8" s="14">
         <v>62</v>
       </c>
-      <c r="F8" s="14">
-        <v>60</v>
-      </c>
       <c r="G8" s="15">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H8" s="15">
         <v>62</v>
       </c>
       <c r="I8" s="15">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="J8" s="13">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="K8" s="16">
         <f t="shared" si="0"/>
@@ -1228,34 +1242,34 @@
     </row>
     <row r="9" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B9" s="10">
-        <v>111420243005</v>
+        <v>111420243007</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="13" t="s">
         <v>20</v>
+      </c>
+      <c r="E9" s="21">
+        <v>61</v>
       </c>
       <c r="F9" s="14">
         <v>68</v>
       </c>
       <c r="G9" s="15">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="H9" s="15">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="I9" s="15">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="J9" s="13">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="K9" s="16">
         <f t="shared" si="0"/>
@@ -1273,38 +1287,38 @@
     </row>
     <row r="10" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="19">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B10" s="10">
-        <v>111420243006</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>27</v>
+        <v>111420243008</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="21">
-        <v>67</v>
+        <v>20</v>
+      </c>
+      <c r="E10" s="13">
+        <v>14</v>
       </c>
       <c r="F10" s="14">
+        <v>60</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="15">
+        <v>61</v>
+      </c>
+      <c r="I10" s="15">
         <v>62</v>
       </c>
-      <c r="G10" s="15">
-        <v>61</v>
-      </c>
-      <c r="H10" s="15">
-        <v>62</v>
-      </c>
-      <c r="I10" s="15">
-        <v>80</v>
-      </c>
       <c r="J10" s="13">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="K10" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L10" s="16">
         <v>55</v>
@@ -1318,38 +1332,38 @@
     </row>
     <row r="11" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B11" s="10">
-        <v>111420243007</v>
+        <v>111420243009</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E11" s="21">
-        <v>61</v>
-      </c>
-      <c r="F11" s="14">
-        <v>68</v>
+        <v>72</v>
+      </c>
+      <c r="F11" s="23">
+        <v>90</v>
       </c>
       <c r="G11" s="15">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="H11" s="15">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="I11" s="15">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="J11" s="13">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K11" s="16">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="16">
         <v>55</v>
@@ -1363,34 +1377,34 @@
     </row>
     <row r="12" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="19">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B12" s="10">
-        <v>111420243008</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>29</v>
+        <v>111420243010</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="13">
-        <v>14</v>
+      <c r="E12" s="21">
+        <v>36</v>
       </c>
       <c r="F12" s="14">
-        <v>60</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>20</v>
+        <v>74</v>
+      </c>
+      <c r="G12" s="15">
+        <v>60</v>
       </c>
       <c r="H12" s="15">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I12" s="15">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="J12" s="13">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K12" s="16">
         <f t="shared" si="0"/>
@@ -1408,38 +1422,38 @@
     </row>
     <row r="13" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="9">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B13" s="10">
-        <v>111420243009</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>30</v>
+        <v>111420243011</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>29</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E13" s="21">
-        <v>72</v>
-      </c>
-      <c r="F13" s="23">
-        <v>90</v>
+        <v>18</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="G13" s="15">
-        <v>64</v>
-      </c>
-      <c r="H13" s="15">
-        <v>89</v>
+        <v>60</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="I13" s="15">
-        <v>92</v>
-      </c>
-      <c r="J13" s="13">
-        <v>91</v>
+        <v>11</v>
+      </c>
+      <c r="J13" s="24">
+        <v>40</v>
       </c>
       <c r="K13" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L13" s="16">
         <v>55</v>
@@ -1453,38 +1467,38 @@
     </row>
     <row r="14" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="19">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B14" s="10">
-        <v>111420243010</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>31</v>
+        <v>111420243012</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="21">
-        <v>36</v>
-      </c>
-      <c r="F14" s="14">
-        <v>74</v>
-      </c>
-      <c r="G14" s="15">
-        <v>60</v>
-      </c>
-      <c r="H14" s="15">
-        <v>60</v>
-      </c>
-      <c r="I14" s="15">
-        <v>71</v>
-      </c>
-      <c r="J14" s="13">
-        <v>30</v>
+        <v>16</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="K14" s="16">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L14" s="16">
         <v>55</v>
@@ -1498,34 +1512,34 @@
     </row>
     <row r="15" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="9">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B15" s="10">
-        <v>111420243011</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>32</v>
+        <v>111420243013</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="21">
-        <v>18</v>
-      </c>
-      <c r="F15" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="15">
-        <v>60</v>
+      <c r="E15" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="14">
+        <v>60</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="15">
-        <v>11</v>
-      </c>
-      <c r="J15" s="24">
-        <v>40</v>
+        <v>17</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="K15" s="16">
         <f t="shared" si="0"/>
@@ -1543,38 +1557,38 @@
     </row>
     <row r="16" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="19">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B16" s="10">
-        <v>111420243012</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>33</v>
+        <v>111420243014</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="E16" s="13">
+        <v>30</v>
+      </c>
+      <c r="F16" s="14">
+        <v>66</v>
+      </c>
+      <c r="G16" s="15">
+        <v>36</v>
+      </c>
+      <c r="H16" s="15">
+        <v>55</v>
+      </c>
+      <c r="I16" s="15">
+        <v>31</v>
+      </c>
+      <c r="J16" s="13">
+        <v>60</v>
       </c>
       <c r="K16" s="16">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L16" s="16">
         <v>55</v>
@@ -1588,38 +1602,38 @@
     </row>
     <row r="17" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="9">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B17" s="10">
-        <v>111420243013</v>
+        <v>111420243015</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="21" t="s">
-        <v>20</v>
+      <c r="E17" s="21">
+        <v>60</v>
       </c>
       <c r="F17" s="14">
-        <v>60</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>20</v>
+        <v>70</v>
+      </c>
+      <c r="G17" s="15">
+        <v>72</v>
+      </c>
+      <c r="H17" s="15">
+        <v>62</v>
+      </c>
+      <c r="I17" s="15">
+        <v>53</v>
+      </c>
+      <c r="J17" s="13">
+        <v>76</v>
       </c>
       <c r="K17" s="16">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L17" s="16">
         <v>55</v>
@@ -1633,38 +1647,38 @@
     </row>
     <row r="18" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="19">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B18" s="10">
-        <v>111420243014</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>35</v>
+        <v>111420243016</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="13">
-        <v>30</v>
+        <v>16</v>
+      </c>
+      <c r="E18" s="21">
+        <v>60</v>
       </c>
       <c r="F18" s="14">
+        <v>74</v>
+      </c>
+      <c r="G18" s="15">
         <v>66</v>
       </c>
-      <c r="G18" s="15">
-        <v>36</v>
-      </c>
       <c r="H18" s="15">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I18" s="15">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J18" s="13">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K18" s="16">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L18" s="16">
         <v>55</v>
@@ -1678,38 +1692,38 @@
     </row>
     <row r="19" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B19" s="10">
-        <v>111420243015</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>36</v>
+        <v>111420243017</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>35</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="21">
-        <v>60</v>
-      </c>
-      <c r="F19" s="14">
-        <v>70</v>
-      </c>
-      <c r="G19" s="15">
-        <v>72</v>
-      </c>
-      <c r="H19" s="15">
-        <v>62</v>
-      </c>
-      <c r="I19" s="15">
-        <v>53</v>
+        <v>23</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="J19" s="13">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="K19" s="16">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L19" s="16">
         <v>55</v>
@@ -1723,38 +1737,38 @@
     </row>
     <row r="20" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="19">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B20" s="10">
-        <v>111420243016</v>
+        <v>111420243018</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E20" s="21">
         <v>60</v>
       </c>
       <c r="F20" s="14">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G20" s="15">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H20" s="15">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="I20" s="15">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="J20" s="13">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="K20" s="16">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20" s="16">
         <v>55</v>
@@ -1768,38 +1782,38 @@
     </row>
     <row r="21" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="9">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B21" s="10">
-        <v>111420243017</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>38</v>
+        <v>111420243019</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>37</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="F21" s="23">
+        <v>82</v>
+      </c>
+      <c r="G21" s="15">
+        <v>60</v>
+      </c>
+      <c r="H21" s="15">
+        <v>60</v>
+      </c>
+      <c r="I21" s="15">
+        <v>63</v>
       </c>
       <c r="J21" s="13">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="K21" s="16">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L21" s="16">
         <v>55</v>
@@ -1813,38 +1827,38 @@
     </row>
     <row r="22" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="19">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B22" s="10">
-        <v>111420243018</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>39</v>
+        <v>111420243020</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>38</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E22" s="21">
-        <v>60</v>
-      </c>
-      <c r="F22" s="14">
-        <v>66</v>
+        <v>61</v>
+      </c>
+      <c r="F22" s="23">
+        <v>70</v>
       </c>
       <c r="G22" s="15">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H22" s="15">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I22" s="15">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="J22" s="13">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K22" s="16">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22" s="16">
         <v>55</v>
@@ -1858,38 +1872,38 @@
     </row>
     <row r="23" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="9">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B23" s="10">
-        <v>111420243019</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>40</v>
+        <v>111420243021</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>39</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="21" t="s">
         <v>20</v>
       </c>
+      <c r="E23" s="21">
+        <v>24</v>
+      </c>
       <c r="F23" s="23">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="G23" s="15">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H23" s="15">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="I23" s="15">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="J23" s="13">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="K23" s="16">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L23" s="16">
         <v>55</v>
@@ -1903,38 +1917,38 @@
     </row>
     <row r="24" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="19">
+        <v>22</v>
+      </c>
+      <c r="B24" s="10">
+        <v>111420243023</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="10">
-        <v>111420243020</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>19</v>
-      </c>
       <c r="E24" s="21">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="F24" s="23">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="G24" s="15">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="H24" s="15">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="I24" s="15">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="J24" s="13">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="K24" s="16">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L24" s="16">
         <v>55</v>
@@ -1948,38 +1962,38 @@
     </row>
     <row r="25" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B25" s="10">
-        <v>111420243021</v>
+        <v>111420243024</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="21">
-        <v>24</v>
-      </c>
-      <c r="F25" s="23">
-        <v>42</v>
+        <v>16</v>
+      </c>
+      <c r="E25" s="13">
+        <v>62</v>
+      </c>
+      <c r="F25" s="14">
+        <v>82</v>
       </c>
       <c r="G25" s="15">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="H25" s="15">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="I25" s="15">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="J25" s="13">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="K25" s="16">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L25" s="16">
         <v>55</v>
@@ -1993,38 +2007,38 @@
     </row>
     <row r="26" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="19">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B26" s="10">
-        <v>111420243023</v>
+        <v>111420243025</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="21">
-        <v>76</v>
-      </c>
-      <c r="F26" s="23">
-        <v>90</v>
-      </c>
-      <c r="G26" s="15">
-        <v>84</v>
-      </c>
-      <c r="H26" s="15">
-        <v>86</v>
-      </c>
-      <c r="I26" s="15">
-        <v>94</v>
-      </c>
-      <c r="J26" s="13">
-        <v>75</v>
+        <v>16</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="K26" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L26" s="16">
         <v>55</v>
@@ -2038,38 +2052,38 @@
     </row>
     <row r="27" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="9">
+        <v>25</v>
+      </c>
+      <c r="B27" s="10">
+        <v>111420243026</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="10">
-        <v>111420243024</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="13">
-        <v>62</v>
-      </c>
-      <c r="F27" s="14">
-        <v>82</v>
-      </c>
-      <c r="G27" s="15">
-        <v>65</v>
-      </c>
-      <c r="H27" s="15">
-        <v>69</v>
-      </c>
-      <c r="I27" s="15">
-        <v>78</v>
-      </c>
-      <c r="J27" s="13">
-        <v>76</v>
+      <c r="E27" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="K27" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L27" s="16">
         <v>55</v>
@@ -2083,38 +2097,38 @@
     </row>
     <row r="28" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="19">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B28" s="10">
-        <v>111420243025</v>
+        <v>111420243301</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F28" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I28" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J28" s="13" t="s">
-        <v>20</v>
+      <c r="E28" s="21">
+        <v>61</v>
+      </c>
+      <c r="F28" s="23">
+        <v>86</v>
+      </c>
+      <c r="G28" s="15">
+        <v>60</v>
+      </c>
+      <c r="H28" s="15">
+        <v>60</v>
+      </c>
+      <c r="I28" s="15">
+        <v>77</v>
+      </c>
+      <c r="J28" s="13">
+        <v>61</v>
       </c>
       <c r="K28" s="16">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L28" s="16">
         <v>55</v>
@@ -2126,141 +2140,11 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="9">
-        <v>25</v>
-      </c>
-      <c r="B29" s="10">
-        <v>111420243026</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H29" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I29" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J29" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K29" s="16">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="L29" s="16">
-        <v>55</v>
-      </c>
-      <c r="M29" s="17">
-        <v>6</v>
-      </c>
-      <c r="N29" s="18">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="19">
-        <v>26</v>
-      </c>
-      <c r="B30" s="10">
-        <v>111420243301</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" s="21">
-        <v>61</v>
-      </c>
-      <c r="F30" s="23">
-        <v>86</v>
-      </c>
-      <c r="G30" s="15">
-        <v>60</v>
-      </c>
-      <c r="H30" s="15">
-        <v>60</v>
-      </c>
-      <c r="I30" s="15">
-        <v>77</v>
-      </c>
-      <c r="J30" s="13">
-        <v>61</v>
-      </c>
-      <c r="K30" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L30" s="16">
-        <v>55</v>
-      </c>
-      <c r="M30" s="17">
-        <v>6</v>
-      </c>
-      <c r="N30" s="18">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="61.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="30"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="27"/>
-      <c r="E31" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="F31" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="G31" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="H31" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="I31" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="J31" s="32" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K31" s="28">
-        <v>55</v>
-      </c>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="N31" s="29">
-        <f>(K31/K$31)</f>
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A3:C3"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <conditionalFormatting sqref="E5:J30">
+  <conditionalFormatting sqref="E3:J28">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"AB"</formula>
     </cfRule>
@@ -2268,12 +2152,12 @@
       <formula>60</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
+  <conditionalFormatting sqref="I3">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>60</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
+  <conditionalFormatting sqref="J3">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>60</formula>
     </cfRule>
